--- a/document/设计清单.xlsx
+++ b/document/设计清单.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="角色设计" sheetId="1" r:id="rId1"/>
-    <sheet name="武器设计" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="怪物设计" sheetId="4" r:id="rId2"/>
+    <sheet name="武器设计" sheetId="2" r:id="rId3"/>
+    <sheet name="物品" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>角色名</t>
   </si>
@@ -102,6 +103,48 @@
     <t>击杀5个敌人可以使用</t>
   </si>
   <si>
+    <t>能力</t>
+  </si>
+  <si>
+    <t>能力介绍</t>
+  </si>
+  <si>
+    <t>掉率概率</t>
+  </si>
+  <si>
+    <t>掉落数量</t>
+  </si>
+  <si>
+    <t>掉落等级</t>
+  </si>
+  <si>
+    <t>僵尸1</t>
+  </si>
+  <si>
+    <t>最常见的变异者</t>
+  </si>
+  <si>
+    <t>僵尸2</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>高度腐烂的变异者</t>
+  </si>
+  <si>
+    <t>自爆僵尸</t>
+  </si>
+  <si>
+    <t>自爆</t>
+  </si>
+  <si>
+    <t>自爆僵尸接近玩家后会发生自爆，对范围内的玩家造成2点伤害，并可以破坏场景内可破坏物品，自爆死亡的僵尸不会掉落任何物品</t>
+  </si>
+  <si>
+    <t>胖子僵尸</t>
+  </si>
+  <si>
     <t>武器</t>
   </si>
   <si>
@@ -114,6 +157,9 @@
     <t>射速</t>
   </si>
   <si>
+    <t>射击距离</t>
+  </si>
+  <si>
     <t>换弹时间</t>
   </si>
   <si>
@@ -126,6 +172,9 @@
     <t>手枪</t>
   </si>
   <si>
+    <t>直线</t>
+  </si>
+  <si>
     <t>伍兹冲锋枪</t>
   </si>
   <si>
@@ -138,10 +187,7 @@
     <t>霰弹枪</t>
   </si>
   <si>
-    <t>3/单弹丸</t>
-  </si>
-  <si>
-    <t>散射</t>
+    <t>对面前的扇形区域进行攻击</t>
   </si>
   <si>
     <t>M16</t>
@@ -172,6 +218,48 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>近战</t>
+  </si>
+  <si>
+    <t>物品等级</t>
+  </si>
+  <si>
+    <t>物品</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>效果</t>
+  </si>
+  <si>
+    <t>所持上限</t>
+  </si>
+  <si>
+    <t>武器增强</t>
+  </si>
+  <si>
+    <t>装备</t>
+  </si>
+  <si>
+    <t>武器伤害提高1</t>
+  </si>
+  <si>
+    <t>生命增幅</t>
+  </si>
+  <si>
+    <t>增加额外生命值1</t>
+  </si>
+  <si>
+    <t>移动速度增强</t>
+  </si>
+  <si>
+    <t>移动速度提高1</t>
+  </si>
+  <si>
+    <t>射击速度增强</t>
   </si>
 </sst>
 </file>
@@ -180,11 +268,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +295,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +394,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -229,122 +424,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,24 +440,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -389,31 +578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,13 +590,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,43 +608,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,66 +620,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -562,6 +637,21 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -599,30 +689,10 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -648,6 +718,50 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -676,22 +790,24 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,26 +836,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,17 +866,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,199 +905,232 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -981,20 +1141,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1385,8 +1623,8 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" outlineLevelCol="7"/>
@@ -1399,21 +1637,21 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="60" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
@@ -1421,170 +1659,170 @@
       </c>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:8">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="22">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="27">
         <v>3</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="1"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="32">
         <v>3</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="1"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="27">
         <v>3</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="50" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" ht="89" customHeight="1" spans="1:7">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="27">
         <v>2</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="50"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="32">
         <v>5</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="23"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="27">
         <v>2</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="50" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:7">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="27">
         <v>3</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="50"/>
     </row>
     <row r="10" ht="39" customHeight="1" spans="1:7">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="32">
         <v>3</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="23"/>
+      <c r="G10" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -1617,166 +1855,504 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="12.375" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="8" max="8" width="7.25" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="16384" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1" customHeight="1" spans="1:11">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:11">
+      <c r="A2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="26">
+        <v>1</v>
+      </c>
+      <c r="I2" s="47">
+        <v>1</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:11">
+      <c r="A3" s="6"/>
+      <c r="B3" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="27">
+        <v>2</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:11">
+      <c r="A4" s="16"/>
+      <c r="B4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="32">
+        <v>2</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:11">
+      <c r="A5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="22">
+        <v>1</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="36">
+        <v>0.15</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="47">
+        <v>1</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="53"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:11">
+      <c r="A6" s="6"/>
+      <c r="B6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="27">
+        <v>1</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="54"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:11">
+      <c r="A7" s="16"/>
+      <c r="B7" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="32">
+        <v>2</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="55"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:11">
+      <c r="A8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="42">
+        <v>1</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="43">
+        <v>0.15</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="56"/>
+    </row>
+    <row r="9" ht="57" customHeight="1" spans="1:11">
+      <c r="A9" s="6"/>
+      <c r="B9" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="27">
+        <v>1</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="56"/>
+    </row>
+    <row r="10" ht="19" customHeight="1" spans="1:11">
+      <c r="A10" s="16"/>
+      <c r="B10" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="32">
+        <v>1</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="K8:K10"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" outlineLevelRow="7" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="20" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="7" customWidth="1"/>
+    <col min="3" max="6" width="9" style="7"/>
+    <col min="7" max="7" width="27.5" style="7" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="1">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="7">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="7">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="G2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:8">
+      <c r="A3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>5</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="G3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:8">
+      <c r="A4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="7">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="G4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:8">
+      <c r="A5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="7">
         <v>4</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
+        <v>6</v>
+      </c>
+      <c r="F5" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="G5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="7">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="G6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="7">
         <v>10</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="7">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="G7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:8">
+      <c r="A8" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="17">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="17">
         <v>1</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1785,17 +2361,191 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="25" customHeight="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="16383" width="11.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" s="9"/>
+      <c r="B3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="14"/>
+      <c r="B7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="10">
+        <v>3</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="14"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:6">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A11:A13"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
